--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,472 @@
         <v>309.99</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43592.6567785922</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Handguns</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nome: Taurus G2C 9mm Sub-Compact Pistol Cyan; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>230</v>
+      </c>
+      <c r="J4" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43592.6567785922</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Handguns</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nome: Glock G43X Subcompact 9mm 3.41" Fixed Sights 10+1; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>454</v>
+      </c>
+      <c r="J5" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43592.6567785922</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Handguns</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nome: Taurus 4510TKR-3MAG M4510 Judge 5RD 3" 410ga/45LC; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>382</v>
+      </c>
+      <c r="J6" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43592.6567785922</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nome: Mossberg 590 Shockwave 12ga 14" 6-shot; </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>297.99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43592.6567785922</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nome: 
+Mossberg Shockwave 14" 20GA 5+1; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>269.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>269.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43592.65931711232</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nome: Rock Island X4 Tact Shotgun Semi-Automatic 12; </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>244.99</v>
+      </c>
+      <c r="J9" t="n">
+        <v>244.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F38580_1557240711</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43592.66101446554</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nome: 
+Mossberg Shockwave 14" 20GA 5+1; </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>269.99</v>
+      </c>
+      <c r="J10" t="n">
+        <v>539.98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F59270_1557240898</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43592.66323211777</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nome: 
+Mossberg Shockwave 14" 20GA 5+1; </t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>269.99</v>
+      </c>
+      <c r="J11" t="n">
+        <v>809.97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>F66791_1557240933</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>43592.66362372811</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nome: 
+Mossberg Shockwave 14" 20GA 5+1; </t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>269.99</v>
+      </c>
+      <c r="J12" t="n">
+        <v>269.99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F66791_1557240933</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43592.66362372811</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nome: Mossberg 590 Shockwave 12ga 14" 6-shot; </t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>297.99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>F66791_1557240933</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>43592.66362372811</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Shotgun</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nome: Mossberg 590 Shockwave 12ga 5+1 FDE; </t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>339.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
